--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl4-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl4-Ccr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -540,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2400906666666667</v>
+        <v>0.8774723333333333</v>
       </c>
       <c r="H2">
-        <v>0.720272</v>
+        <v>2.632417</v>
       </c>
       <c r="I2">
-        <v>0.0002162447659744526</v>
+        <v>0.0007088393434259271</v>
       </c>
       <c r="J2">
-        <v>0.0002162447659744527</v>
+        <v>0.0007088393434259271</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +561,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N2">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O2">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P2">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q2">
-        <v>0.02471317256177778</v>
+        <v>0.1587332826461111</v>
       </c>
       <c r="R2">
-        <v>0.222418553056</v>
+        <v>1.428599543815</v>
       </c>
       <c r="S2">
-        <v>1.638388188643918E-05</v>
+        <v>6.767169986196518E-05</v>
       </c>
       <c r="T2">
-        <v>1.638388188643918E-05</v>
+        <v>6.767169986196518E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2400906666666667</v>
+        <v>0.8774723333333333</v>
       </c>
       <c r="H3">
-        <v>0.720272</v>
+        <v>2.632417</v>
       </c>
       <c r="I3">
-        <v>0.0002162447659744526</v>
+        <v>0.0007088393434259271</v>
       </c>
       <c r="J3">
-        <v>0.0002162447659744527</v>
+        <v>0.0007088393434259271</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N3">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O3">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P3">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q3">
-        <v>0.2425389512248889</v>
+        <v>1.380033205109667</v>
       </c>
       <c r="R3">
-        <v>2.182850561024</v>
+        <v>12.420298845987</v>
       </c>
       <c r="S3">
-        <v>0.0001607939862757773</v>
+        <v>0.0005883403360587857</v>
       </c>
       <c r="T3">
-        <v>0.0001607939862757773</v>
+        <v>0.0005883403360587857</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,46 +667,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2400906666666667</v>
+        <v>0.8774723333333333</v>
       </c>
       <c r="H4">
-        <v>0.720272</v>
+        <v>2.632417</v>
       </c>
       <c r="I4">
-        <v>0.0002162447659744526</v>
+        <v>0.0007088393434259271</v>
       </c>
       <c r="J4">
-        <v>0.0002162447659744527</v>
+        <v>0.0007088393434259271</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N4">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O4">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P4">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q4">
-        <v>0.05892785322666667</v>
+        <v>0.1239137180055556</v>
       </c>
       <c r="R4">
-        <v>0.53035067904</v>
+        <v>1.11522346205</v>
       </c>
       <c r="S4">
-        <v>3.906689781223614E-05</v>
+        <v>5.282730750517614E-05</v>
       </c>
       <c r="T4">
-        <v>3.906689781223614E-05</v>
+        <v>5.282730750517613E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +714,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -732,10 +735,10 @@
         <v>0.254913</v>
       </c>
       <c r="I5">
-        <v>7.653164641808324E-05</v>
+        <v>6.864123866041489E-05</v>
       </c>
       <c r="J5">
-        <v>7.653164641808324E-05</v>
+        <v>6.864123866041489E-05</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +747,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N5">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O5">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P5">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q5">
-        <v>0.008746291619333334</v>
+        <v>0.01537111228166666</v>
       </c>
       <c r="R5">
-        <v>0.078716624574</v>
+        <v>0.138340010535</v>
       </c>
       <c r="S5">
-        <v>5.798454588430303E-06</v>
+        <v>6.553063601592428E-06</v>
       </c>
       <c r="T5">
-        <v>5.798454588430303E-06</v>
+        <v>6.553063601592428E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +776,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -794,10 +797,10 @@
         <v>0.254913</v>
       </c>
       <c r="I6">
-        <v>7.653164641808324E-05</v>
+        <v>6.864123866041489E-05</v>
       </c>
       <c r="J6">
-        <v>7.653164641808324E-05</v>
+        <v>6.864123866041489E-05</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N6">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O6">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P6">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q6">
-        <v>0.08583747761066668</v>
+        <v>0.133637035627</v>
       </c>
       <c r="R6">
-        <v>0.7725372984959999</v>
+        <v>1.202733320643</v>
       </c>
       <c r="S6">
-        <v>5.690694268764749E-05</v>
+        <v>5.697258454331258E-05</v>
       </c>
       <c r="T6">
-        <v>5.690694268764748E-05</v>
+        <v>5.697258454331258E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -856,40 +859,40 @@
         <v>0.254913</v>
       </c>
       <c r="I7">
-        <v>7.653164641808324E-05</v>
+        <v>6.864123866041489E-05</v>
       </c>
       <c r="J7">
-        <v>7.653164641808324E-05</v>
+        <v>6.864123866041489E-05</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N7">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O7">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P7">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q7">
-        <v>0.02085528224</v>
+        <v>0.01199932138333334</v>
       </c>
       <c r="R7">
-        <v>0.18769754016</v>
+        <v>0.10799389245</v>
       </c>
       <c r="S7">
-        <v>1.382624914200546E-05</v>
+        <v>5.115590515509878E-06</v>
       </c>
       <c r="T7">
-        <v>1.382624914200545E-05</v>
+        <v>5.115590515509877E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +900,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -912,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>62.54623800000001</v>
+        <v>71.07177233333334</v>
       </c>
       <c r="H8">
-        <v>187.638714</v>
+        <v>213.215317</v>
       </c>
       <c r="I8">
-        <v>0.05633412071644775</v>
+        <v>0.05741317021985155</v>
       </c>
       <c r="J8">
-        <v>0.05633412071644776</v>
+        <v>0.05741317021985154</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +933,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N8">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O8">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P8">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q8">
-        <v>6.438051067308002</v>
+        <v>12.85676516214611</v>
       </c>
       <c r="R8">
-        <v>57.94245960577201</v>
+        <v>115.710886459315</v>
       </c>
       <c r="S8">
-        <v>0.004268179975758245</v>
+        <v>0.00548113879297914</v>
       </c>
       <c r="T8">
-        <v>0.004268179975758245</v>
+        <v>0.005481138792979139</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +962,13 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>62.54623800000001</v>
+        <v>71.07177233333334</v>
       </c>
       <c r="H9">
-        <v>187.638714</v>
+        <v>213.215317</v>
       </c>
       <c r="I9">
-        <v>0.05633412071644775</v>
+        <v>0.05741317021985155</v>
       </c>
       <c r="J9">
-        <v>0.05633412071644776</v>
+        <v>0.05741317021985154</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N9">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O9">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P9">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q9">
-        <v>63.18404283763201</v>
+        <v>111.7772060042097</v>
       </c>
       <c r="R9">
-        <v>568.656385538688</v>
+        <v>1005.994854037887</v>
       </c>
       <c r="S9">
-        <v>0.041888587649833</v>
+        <v>0.04765322943008671</v>
       </c>
       <c r="T9">
-        <v>0.041888587649833</v>
+        <v>0.0476532294300867</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1024,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>62.54623800000001</v>
+        <v>71.07177233333334</v>
       </c>
       <c r="H10">
-        <v>187.638714</v>
+        <v>213.215317</v>
       </c>
       <c r="I10">
-        <v>0.05633412071644775</v>
+        <v>0.05741317021985155</v>
       </c>
       <c r="J10">
-        <v>0.05633412071644776</v>
+        <v>0.05741317021985154</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N10">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O10">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P10">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q10">
-        <v>15.35134865472</v>
+        <v>10.03651878300556</v>
       </c>
       <c r="R10">
-        <v>138.16213789248</v>
+        <v>90.32866904705001</v>
       </c>
       <c r="S10">
-        <v>0.01017735309085652</v>
+        <v>0.004278801996785696</v>
       </c>
       <c r="T10">
-        <v>0.01017735309085652</v>
+        <v>0.004278801996785695</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1086,31 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>937.1581420000001</v>
+        <v>0.03596933333333333</v>
       </c>
       <c r="H11">
-        <v>2811.474426</v>
+        <v>0.107908</v>
       </c>
       <c r="I11">
-        <v>0.8440792218683062</v>
+        <v>2.905673222380989E-05</v>
       </c>
       <c r="J11">
-        <v>0.8440792218683063</v>
+        <v>2.905673222380989E-05</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1119,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N11">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O11">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P11">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q11">
-        <v>96.46418664443868</v>
+        <v>0.006506792451111109</v>
       </c>
       <c r="R11">
-        <v>868.1776797999481</v>
+        <v>0.05856113205999999</v>
       </c>
       <c r="S11">
-        <v>0.06395204162084379</v>
+        <v>2.773997352510997E-06</v>
       </c>
       <c r="T11">
-        <v>0.06395204162084379</v>
+        <v>2.773997352510997E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1148,31 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>937.1581420000001</v>
+        <v>0.03596933333333333</v>
       </c>
       <c r="H12">
-        <v>2811.474426</v>
+        <v>0.107908</v>
       </c>
       <c r="I12">
-        <v>0.8440792218683062</v>
+        <v>2.905673222380989E-05</v>
       </c>
       <c r="J12">
-        <v>0.8440792218683063</v>
+        <v>2.905673222380989E-05</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N12">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O12">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P12">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q12">
-        <v>946.7146559600214</v>
+        <v>0.05657030139866667</v>
       </c>
       <c r="R12">
-        <v>8520.431903640192</v>
+        <v>0.5091327125880001</v>
       </c>
       <c r="S12">
-        <v>0.627635365901969</v>
+        <v>2.411723863788733E-05</v>
       </c>
       <c r="T12">
-        <v>0.627635365901969</v>
+        <v>2.411723863788733E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1210,61 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>937.1581420000001</v>
+        <v>0.03596933333333333</v>
       </c>
       <c r="H13">
-        <v>2811.474426</v>
+        <v>0.107908</v>
       </c>
       <c r="I13">
-        <v>0.8440792218683062</v>
+        <v>2.905673222380989E-05</v>
       </c>
       <c r="J13">
-        <v>0.8440792218683063</v>
+        <v>2.905673222380989E-05</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.24544</v>
+        <v>0.1412166666666667</v>
       </c>
       <c r="N13">
-        <v>0.73632</v>
+        <v>0.42365</v>
       </c>
       <c r="O13">
-        <v>0.1806605474874317</v>
+        <v>0.07452648896413371</v>
       </c>
       <c r="P13">
-        <v>0.1806605474874316</v>
+        <v>0.07452648896413369</v>
       </c>
       <c r="Q13">
-        <v>230.01609437248</v>
+        <v>0.005079469355555556</v>
       </c>
       <c r="R13">
-        <v>2070.14484935232</v>
+        <v>0.0457152242</v>
       </c>
       <c r="S13">
-        <v>0.1524918143454935</v>
+        <v>2.165496233411556E-06</v>
       </c>
       <c r="T13">
-        <v>0.1524918143454935</v>
+        <v>2.165496233411555E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1272,10 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>110.2432883333333</v>
+        <v>1112.75885</v>
       </c>
       <c r="H14">
-        <v>330.729865</v>
+        <v>3338.27655</v>
       </c>
       <c r="I14">
-        <v>0.09929388100285352</v>
+        <v>0.8989084016233635</v>
       </c>
       <c r="J14">
-        <v>0.09929388100285354</v>
+        <v>0.8989084016233634</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1305,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1029326666666667</v>
+        <v>0.1808983333333333</v>
       </c>
       <c r="N14">
-        <v>0.308798</v>
+        <v>0.5426949999999999</v>
       </c>
       <c r="O14">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="P14">
-        <v>0.07576544945543232</v>
+        <v>0.09546831801815302</v>
       </c>
       <c r="Q14">
-        <v>11.34763565025222</v>
+        <v>201.2962213669167</v>
       </c>
       <c r="R14">
-        <v>102.12872085227</v>
+        <v>1811.66599230225</v>
       </c>
       <c r="S14">
-        <v>0.00752304552235541</v>
+        <v>0.08581727315536888</v>
       </c>
       <c r="T14">
-        <v>0.007523045522355411</v>
+        <v>0.08581727315536887</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1334,13 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>110.2432883333333</v>
+        <v>1112.75885</v>
       </c>
       <c r="H15">
-        <v>330.729865</v>
+        <v>3338.27655</v>
       </c>
       <c r="I15">
-        <v>0.09929388100285352</v>
+        <v>0.8989084016233635</v>
       </c>
       <c r="J15">
-        <v>0.09929388100285354</v>
+        <v>0.8989084016233634</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.010197333333333</v>
+        <v>1.572737</v>
       </c>
       <c r="N15">
-        <v>3.030592</v>
+        <v>4.718211</v>
       </c>
       <c r="O15">
-        <v>0.7435740030571362</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="P15">
-        <v>0.7435740030571361</v>
+        <v>0.8300051930177132</v>
       </c>
       <c r="Q15">
-        <v>111.3674758922311</v>
+        <v>1750.07701547245</v>
       </c>
       <c r="R15">
-        <v>1002.30728303008</v>
+        <v>15750.69313925205</v>
       </c>
       <c r="S15">
-        <v>0.07383234857637072</v>
+        <v>0.7460986413946439</v>
       </c>
       <c r="T15">
-        <v>0.07383234857637072</v>
+        <v>0.7460986413946439</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1396,13 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,46 +1411,232 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>110.2432883333333</v>
+        <v>1112.75885</v>
       </c>
       <c r="H16">
-        <v>330.729865</v>
+        <v>3338.27655</v>
       </c>
       <c r="I16">
-        <v>0.09929388100285352</v>
+        <v>0.8989084016233635</v>
       </c>
       <c r="J16">
-        <v>0.09929388100285354</v>
+        <v>0.8989084016233634</v>
       </c>
       <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.1412166666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.42365</v>
+      </c>
+      <c r="O16">
+        <v>0.07452648896413371</v>
+      </c>
+      <c r="P16">
+        <v>0.07452648896413369</v>
+      </c>
+      <c r="Q16">
+        <v>157.1400956008334</v>
+      </c>
+      <c r="R16">
+        <v>1414.2608604075</v>
+      </c>
+      <c r="S16">
+        <v>0.06699248707335066</v>
+      </c>
+      <c r="T16">
+        <v>0.06699248707335065</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>53.07112033333333</v>
+      </c>
+      <c r="H17">
+        <v>159.213361</v>
+      </c>
+      <c r="I17">
+        <v>0.04287189084247485</v>
+      </c>
+      <c r="J17">
+        <v>0.04287189084247484</v>
+      </c>
+      <c r="K17">
         <v>2</v>
       </c>
-      <c r="L16">
+      <c r="L17">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M16">
-        <v>0.24544</v>
-      </c>
-      <c r="N16">
-        <v>0.73632</v>
-      </c>
-      <c r="O16">
-        <v>0.1806605474874317</v>
-      </c>
-      <c r="P16">
-        <v>0.1806605474874316</v>
-      </c>
-      <c r="Q16">
-        <v>27.05811268853333</v>
-      </c>
-      <c r="R16">
-        <v>243.5230141968</v>
-      </c>
-      <c r="S16">
-        <v>0.01793848690412741</v>
-      </c>
-      <c r="T16">
-        <v>0.0179384869041274</v>
+      <c r="M17">
+        <v>0.1808983333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.5426949999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.09546831801815302</v>
+      </c>
+      <c r="P17">
+        <v>0.09546831801815302</v>
+      </c>
+      <c r="Q17">
+        <v>9.600477216432775</v>
+      </c>
+      <c r="R17">
+        <v>86.40429494789498</v>
+      </c>
+      <c r="S17">
+        <v>0.004092907308988931</v>
+      </c>
+      <c r="T17">
+        <v>0.004092907308988931</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>53.07112033333333</v>
+      </c>
+      <c r="H18">
+        <v>159.213361</v>
+      </c>
+      <c r="I18">
+        <v>0.04287189084247485</v>
+      </c>
+      <c r="J18">
+        <v>0.04287189084247484</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.572737</v>
+      </c>
+      <c r="N18">
+        <v>4.718211</v>
+      </c>
+      <c r="O18">
+        <v>0.8300051930177132</v>
+      </c>
+      <c r="P18">
+        <v>0.8300051930177132</v>
+      </c>
+      <c r="Q18">
+        <v>83.46691457968566</v>
+      </c>
+      <c r="R18">
+        <v>751.2022312171709</v>
+      </c>
+      <c r="S18">
+        <v>0.03558389203374267</v>
+      </c>
+      <c r="T18">
+        <v>0.03558389203374267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>53.07112033333333</v>
+      </c>
+      <c r="H19">
+        <v>159.213361</v>
+      </c>
+      <c r="I19">
+        <v>0.04287189084247485</v>
+      </c>
+      <c r="J19">
+        <v>0.04287189084247484</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.1412166666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.42365</v>
+      </c>
+      <c r="O19">
+        <v>0.07452648896413371</v>
+      </c>
+      <c r="P19">
+        <v>0.07452648896413369</v>
+      </c>
+      <c r="Q19">
+        <v>7.494526709738889</v>
+      </c>
+      <c r="R19">
+        <v>67.45074038765</v>
+      </c>
+      <c r="S19">
+        <v>0.003195091499743247</v>
+      </c>
+      <c r="T19">
+        <v>0.003195091499743246</v>
       </c>
     </row>
   </sheetData>
